--- a/data/Dr Challoners Data/IBSC Teacher Dr Challoners 10T.xlsx
+++ b/data/Dr Challoners Data/IBSC Teacher Dr Challoners 10T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/Dr Challoners Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_49AE410B506B5AA5882B9DDEB7CBED599E272E45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0951E8C-4341-43FC-88EF-7032B3BB1AC0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_49AE410B506B5AA5882B9DDEB7CBED599E272E45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E91EFEA-7DED-494F-8944-9B6182810939}"/>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="2390" windowWidth="28100" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="37690" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -645,6 +645,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,13 +975,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1238,7 +1245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1410,7 +1417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1496,7 +1503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1754,7 +1761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1840,7 +1847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -2098,7 +2105,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -2184,7 +2191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2270,7 +2277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -2614,7 +2621,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -2786,7 +2793,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -2872,7 +2879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -2958,7 +2965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3044,7 +3051,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -3216,7 +3223,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -3302,7 +3309,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -3474,7 +3481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -3646,7 +3653,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -3746,9 +3753,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -3762,7 +3769,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3776,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3790,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3804,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3818,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3832,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3846,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3874,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3888,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3902,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3930,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3944,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3958,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3972,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3986,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -4000,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4014,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4028,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4042,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4056,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4070,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4084,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4098,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -4112,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4126,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4140,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4154,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4168,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4196,9 +4203,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -4212,7 +4219,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4226,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4240,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4254,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4268,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4282,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -4296,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4310,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -4324,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4338,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4352,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -4366,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4380,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4394,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4408,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -4436,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -4450,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4464,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4478,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4492,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4506,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4520,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4534,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4548,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -4562,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4576,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4590,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4604,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4618,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4646,9 +4653,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -4662,7 +4669,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4676,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4690,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4704,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4718,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4732,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -4746,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4760,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -4774,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4802,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -4816,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4830,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4844,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4858,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4872,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -4886,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -4900,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4914,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4928,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4942,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4956,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4970,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4984,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4998,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5012,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5026,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5040,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5054,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5068,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -5096,9 +5103,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -5112,7 +5119,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5126,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -5140,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -5154,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5168,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -5182,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5196,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -5210,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5224,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5238,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5252,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5266,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5280,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5294,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5308,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5322,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -5336,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5350,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5364,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5378,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5406,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5420,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5434,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -5448,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5462,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5476,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5490,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5504,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5518,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -5546,9 +5553,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -5562,7 +5569,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -5590,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5618,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -5632,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5646,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -5660,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5674,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5702,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5730,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5744,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5758,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5772,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -5786,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5800,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5814,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5828,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5842,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5856,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5912,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5954,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5968,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -5996,9 +6003,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -6012,7 +6019,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6026,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -6040,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -6054,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6068,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -6082,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6096,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6110,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -6124,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -6138,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -6152,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6166,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -6180,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -6194,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -6208,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6222,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -6236,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6250,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6264,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6278,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -6292,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -6306,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -6320,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -6334,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -6348,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6362,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6376,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -6390,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6404,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -6418,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
